--- a/example/question.xlsx
+++ b/example/question.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Applications\Python\HandiQuiz\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C898822-8BAC-4B8B-8E81-624D457EC3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E719EA-A8B7-4F54-B94D-7F5CAC3A7AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>Question 1</t>
   </si>
@@ -63,10 +63,7 @@
     <t>Question 6</t>
   </si>
   <si>
-    <t>D:\images\image.jpg</t>
-  </si>
-  <si>
-    <t>images/image.jpg</t>
+    <t>image.jpg</t>
   </si>
 </sst>
 </file>
@@ -395,7 +392,7 @@
   <dimension ref="A1:IR264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,9 +595,6 @@
     </row>
     <row r="2" spans="1:252" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
         <v>12</v>
       </c>
     </row>
